--- a/data/model_params_FAWSL.xlsx
+++ b/data/model_params_FAWSL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.09709868093843604</v>
+        <v>-0.06807742355664341</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.06927707851149034</v>
+        <v>-0.06858330716945422</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1046779484366902</v>
+        <v>-0.1048294541821364</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06729917115709878</v>
+        <v>-0.06851356552895799</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2917877228098769</v>
+        <v>-0.2983606849676014</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.134822116399385</v>
+        <v>0.137610500119417</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04073679601302908</v>
+        <v>0.04065523770289773</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.000836055655387622</v>
+        <v>0.0007620119862800202</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.05306801038203807</v>
+        <v>-0.04983344429657881</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.277811421098788</v>
+        <v>-0.1147592499693111</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.3876751703356798</v>
+        <v>-0.217234202289305</v>
       </c>
     </row>
     <row r="13">
@@ -562,17 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.1847888522250301</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>shot_during_regular_play</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>-0.2331276389618649</v>
+        <v>-0.01906499818396121</v>
       </c>
     </row>
   </sheetData>
